--- a/CicotiWebApp/CicotiWebApp/obj/Release/netcoreapp2.1/PubTmp/Out/wwwroot/employeeDetails.xlsx
+++ b/CicotiWebApp/CicotiWebApp/obj/Release/netcoreapp2.1/PubTmp/Out/wwwroot/employeeDetails.xlsx
@@ -86,7 +86,7 @@
     <t xml:space="preserve">Test100</t>
   </si>
   <si>
-    <t xml:space="preserve">2019/04/12 08:38:06 PM</t>
+    <t xml:space="preserve">2019/04/12 12:00:00 AM</t>
   </si>
   <si>
     <t xml:space="preserve">2024/04/05 12:00:00 AM</t>
